--- a/data/pca/factorExposure/factorExposure_2019-06-07.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-06-07.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,15 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +732,115 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>-0.1190065161057382</v>
+        <v>0.07876964308242033</v>
       </c>
       <c r="C2">
-        <v>0.01808557991934263</v>
+        <v>0.0112543000676707</v>
       </c>
       <c r="D2">
-        <v>-0.01780697686703073</v>
+        <v>0.03022988330550784</v>
       </c>
       <c r="E2">
-        <v>0.1108269491446517</v>
+        <v>-0.1416604872005057</v>
       </c>
       <c r="F2">
-        <v>-0.09210099047539748</v>
+        <v>0.0145053745322051</v>
       </c>
       <c r="G2">
-        <v>0.1287655835729035</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.08363859783467378</v>
+      </c>
+      <c r="H2">
+        <v>0.08387415822269481</v>
+      </c>
+      <c r="I2">
+        <v>0.05276430038001415</v>
+      </c>
+      <c r="J2">
+        <v>-0.007993677299723438</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>-0.2102130603078499</v>
+        <v>0.1638504665908213</v>
       </c>
       <c r="C3">
-        <v>-0.07412016368195894</v>
+        <v>0.07867659858205256</v>
       </c>
       <c r="D3">
-        <v>0.08288509963553324</v>
+        <v>-0.05789328626753599</v>
       </c>
       <c r="E3">
-        <v>0.328524416986436</v>
+        <v>-0.3677656369248729</v>
       </c>
       <c r="F3">
-        <v>-0.02239517487046034</v>
+        <v>0.1213237125179247</v>
       </c>
       <c r="G3">
-        <v>0.3572773679990671</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.009047334800011879</v>
+      </c>
+      <c r="H3">
+        <v>0.2596393726496429</v>
+      </c>
+      <c r="I3">
+        <v>0.1382061237900596</v>
+      </c>
+      <c r="J3">
+        <v>0.2150729363698528</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>-0.09917634132833655</v>
+        <v>0.0742405306247018</v>
       </c>
       <c r="C4">
-        <v>-0.01660028176521438</v>
+        <v>0.02944171421948395</v>
       </c>
       <c r="D4">
-        <v>0.001540848068293165</v>
+        <v>0.01969889118115479</v>
       </c>
       <c r="E4">
-        <v>0.08920210647912308</v>
+        <v>-0.08540741862631994</v>
       </c>
       <c r="F4">
-        <v>-0.0489347029096246</v>
+        <v>0.05520428371257339</v>
       </c>
       <c r="G4">
-        <v>0.03169280739696195</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.03848822432692538</v>
+      </c>
+      <c r="H4">
+        <v>0.03525164812381664</v>
+      </c>
+      <c r="I4">
+        <v>0.02131068230343419</v>
+      </c>
+      <c r="J4">
+        <v>0.04577160327689848</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +860,307 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.01058521398190282</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.003677486569932161</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.0008400687242969012</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>-0.006012491308011847</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.003412644210390291</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.01272083189968649</v>
+      </c>
+      <c r="H6">
+        <v>0.005149425695039105</v>
+      </c>
+      <c r="I6">
+        <v>0.002825767283063762</v>
+      </c>
+      <c r="J6">
+        <v>-0.001718461251226873</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>-0.04337338664287874</v>
+        <v>0.03576229902086507</v>
       </c>
       <c r="C7">
-        <v>-0.002814060209214881</v>
+        <v>0.01591560510431145</v>
       </c>
       <c r="D7">
-        <v>-0.02481367928684363</v>
+        <v>0.01576102856264836</v>
       </c>
       <c r="E7">
-        <v>0.08091314625892169</v>
+        <v>-0.05644015922218799</v>
       </c>
       <c r="F7">
-        <v>0.03746737305906196</v>
+        <v>0.03018740025690262</v>
       </c>
       <c r="G7">
-        <v>0.02184689329049862</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.01285254683056045</v>
+      </c>
+      <c r="H7">
+        <v>0.04193476817828171</v>
+      </c>
+      <c r="I7">
+        <v>0.001173379385739877</v>
+      </c>
+      <c r="J7">
+        <v>0.02483270805600937</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.04110780412096304</v>
+        <v>0.03243207088728672</v>
       </c>
       <c r="C8">
-        <v>-0.03226240972575951</v>
+        <v>0.03402868553702038</v>
       </c>
       <c r="D8">
-        <v>0.008034784251469328</v>
+        <v>0.004755031323226305</v>
       </c>
       <c r="E8">
-        <v>0.07179989486950041</v>
+        <v>-0.07666025499537658</v>
       </c>
       <c r="F8">
-        <v>-0.003315664607314775</v>
+        <v>0.04791947376368719</v>
       </c>
       <c r="G8">
-        <v>0.05474451902286679</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.003594628600759902</v>
+      </c>
+      <c r="H8">
+        <v>0.05441697179100531</v>
+      </c>
+      <c r="I8">
+        <v>0.03416619705854967</v>
+      </c>
+      <c r="J8">
+        <v>0.02905417337400737</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>-0.08744570758184268</v>
+        <v>0.06437478150575326</v>
       </c>
       <c r="C9">
-        <v>-0.01733700185655717</v>
+        <v>0.02912041564238706</v>
       </c>
       <c r="D9">
-        <v>-0.01387194166630584</v>
+        <v>0.0218577961369406</v>
       </c>
       <c r="E9">
-        <v>0.07925897502091556</v>
+        <v>-0.0816370920664317</v>
       </c>
       <c r="F9">
-        <v>-0.03231068501957125</v>
+        <v>0.05982721079642768</v>
       </c>
       <c r="G9">
-        <v>0.03070723092913873</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.03068354518897129</v>
+      </c>
+      <c r="H9">
+        <v>0.03198353164097936</v>
+      </c>
+      <c r="I9">
+        <v>0.01003362713695325</v>
+      </c>
+      <c r="J9">
+        <v>0.008331023668671911</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>0.02087708137706223</v>
+        <v>0.00490182929783273</v>
       </c>
       <c r="C10">
-        <v>0.1593991214903265</v>
+        <v>-0.1598148426632627</v>
       </c>
       <c r="D10">
-        <v>0.008073676438486953</v>
+        <v>-0.01014610141819475</v>
       </c>
       <c r="E10">
-        <v>0.03965378836577826</v>
+        <v>-0.05162233874806696</v>
       </c>
       <c r="F10">
-        <v>-0.003495657047420862</v>
+        <v>-4.936192294864688e-05</v>
       </c>
       <c r="G10">
-        <v>-0.005771807415992394</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.01587656611747735</v>
+      </c>
+      <c r="H10">
+        <v>-0.02009893007408171</v>
+      </c>
+      <c r="I10">
+        <v>0.1184723790290267</v>
+      </c>
+      <c r="J10">
+        <v>0.03773249001408002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>-0.05951266680651856</v>
+        <v>0.05094952279996329</v>
       </c>
       <c r="C11">
-        <v>0.001735607781858796</v>
+        <v>0.01666641256213802</v>
       </c>
       <c r="D11">
-        <v>0.01466191875426102</v>
+        <v>0.003547138379714596</v>
       </c>
       <c r="E11">
-        <v>0.04348999606696962</v>
+        <v>-0.04840149294020787</v>
       </c>
       <c r="F11">
-        <v>-0.005673977579802021</v>
+        <v>0.003213533557330675</v>
       </c>
       <c r="G11">
-        <v>-0.004245841524119259</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.004600151751057902</v>
+      </c>
+      <c r="H11">
+        <v>0.01940127904375355</v>
+      </c>
+      <c r="I11">
+        <v>-0.01414424569669535</v>
+      </c>
+      <c r="J11">
+        <v>0.002772529196184281</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>-0.04991370382731443</v>
+        <v>0.04928724095596423</v>
       </c>
       <c r="C12">
-        <v>-0.002616068955405363</v>
+        <v>0.01682452358648377</v>
       </c>
       <c r="D12">
-        <v>0.007985405804609576</v>
+        <v>0.006629334846137599</v>
       </c>
       <c r="E12">
-        <v>0.02764755800965172</v>
+        <v>-0.02484625541860961</v>
       </c>
       <c r="F12">
-        <v>0.003924278513635217</v>
+        <v>0.01640782004022664</v>
       </c>
       <c r="G12">
-        <v>0.0005298572486169437</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.0008178478704483095</v>
+      </c>
+      <c r="H12">
+        <v>0.007442110521964532</v>
+      </c>
+      <c r="I12">
+        <v>-0.01915982128445138</v>
+      </c>
+      <c r="J12">
+        <v>-0.001852532009572749</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>-0.05855698265459567</v>
+        <v>0.04051727547732237</v>
       </c>
       <c r="C13">
-        <v>-0.01496681728334625</v>
+        <v>0.01907413932575959</v>
       </c>
       <c r="D13">
-        <v>0.02543626320431425</v>
+        <v>0.001066784185539056</v>
       </c>
       <c r="E13">
-        <v>0.1141444637535909</v>
+        <v>-0.1059121656171355</v>
       </c>
       <c r="F13">
-        <v>-0.01773110914131107</v>
+        <v>0.01125485134945986</v>
       </c>
       <c r="G13">
-        <v>0.04806256245163649</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.004558209686444934</v>
+      </c>
+      <c r="H13">
+        <v>0.05516314642195365</v>
+      </c>
+      <c r="I13">
+        <v>0.0207948724376081</v>
+      </c>
+      <c r="J13">
+        <v>-0.001993365387562621</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>-0.03776301713346499</v>
+        <v>0.02894041919825565</v>
       </c>
       <c r="C14">
-        <v>-0.004691234246291684</v>
+        <v>0.01300486306906251</v>
       </c>
       <c r="D14">
-        <v>-0.01429666267783913</v>
+        <v>0.01953026927624234</v>
       </c>
       <c r="E14">
-        <v>0.02679100567074962</v>
+        <v>-0.0377438466917698</v>
       </c>
       <c r="F14">
-        <v>-0.002149357808147718</v>
+        <v>0.02140988374534899</v>
       </c>
       <c r="G14">
-        <v>0.04775118048252832</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.01535391327850809</v>
+      </c>
+      <c r="H14">
+        <v>0.06187276487612919</v>
+      </c>
+      <c r="I14">
+        <v>0.02215408178430982</v>
+      </c>
+      <c r="J14">
+        <v>0.001570704503523226</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1180,51 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>-0.05212762132541729</v>
+        <v>0.04363323214747621</v>
       </c>
       <c r="C16">
-        <v>-0.01641450589203292</v>
+        <v>0.02556040601665913</v>
       </c>
       <c r="D16">
-        <v>0.02464323753042814</v>
+        <v>-0.002949150513695818</v>
       </c>
       <c r="E16">
-        <v>0.04013719063060615</v>
+        <v>-0.04445008686425714</v>
       </c>
       <c r="F16">
-        <v>0.0005161377132205295</v>
+        <v>0.007485596949980479</v>
       </c>
       <c r="G16">
-        <v>-0.006055288357437746</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.002314608865736673</v>
+      </c>
+      <c r="H16">
+        <v>0.01875054605645235</v>
+      </c>
+      <c r="I16">
+        <v>-0.01396004090485124</v>
+      </c>
+      <c r="J16">
+        <v>0.005856864285976034</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1244,19 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1276,115 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>-0.04867414123177816</v>
+        <v>0.04828814975914952</v>
       </c>
       <c r="C19">
-        <v>-0.02703074759802628</v>
+        <v>0.03124706792433375</v>
       </c>
       <c r="D19">
-        <v>0.01159038697938218</v>
+        <v>0.002231883225887358</v>
       </c>
       <c r="E19">
-        <v>0.07890764931726406</v>
+        <v>-0.09283297062490121</v>
       </c>
       <c r="F19">
-        <v>-0.003922587801562209</v>
+        <v>0.0347095074159248</v>
       </c>
       <c r="G19">
-        <v>0.07531955209467393</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.002042421812469355</v>
+      </c>
+      <c r="H19">
+        <v>0.07429646797092586</v>
+      </c>
+      <c r="I19">
+        <v>0.05968952181778379</v>
+      </c>
+      <c r="J19">
+        <v>-0.003340216521025303</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>-0.03625580456543917</v>
+        <v>0.01983445132909854</v>
       </c>
       <c r="C20">
-        <v>-0.0294977415698127</v>
+        <v>0.03091571723440987</v>
       </c>
       <c r="D20">
-        <v>0.003850539095927099</v>
+        <v>0.009346157663362376</v>
       </c>
       <c r="E20">
-        <v>0.07628328942033812</v>
+        <v>-0.07121511401088927</v>
       </c>
       <c r="F20">
-        <v>0.005217949196674833</v>
+        <v>0.03699700880781587</v>
       </c>
       <c r="G20">
-        <v>0.05818571846714157</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.00478506141674352</v>
+      </c>
+      <c r="H20">
+        <v>0.07330913041560798</v>
+      </c>
+      <c r="I20">
+        <v>0.01793901911997051</v>
+      </c>
+      <c r="J20">
+        <v>0.03831786020011468</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>-0.03767513831777579</v>
+        <v>0.01683532069458157</v>
       </c>
       <c r="C21">
-        <v>-0.01026202916360084</v>
+        <v>0.02185033211131378</v>
       </c>
       <c r="D21">
-        <v>0.02028805895090762</v>
+        <v>-0.01060028742019624</v>
       </c>
       <c r="E21">
-        <v>0.0917043586682247</v>
+        <v>-0.08233307591979132</v>
       </c>
       <c r="F21">
-        <v>-0.03974465291391858</v>
+        <v>0.02943632764424188</v>
       </c>
       <c r="G21">
-        <v>0.0506608044874278</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.01903213301192436</v>
+      </c>
+      <c r="H21">
+        <v>0.04666052216583324</v>
+      </c>
+      <c r="I21">
+        <v>-0.005457978868592665</v>
+      </c>
+      <c r="J21">
+        <v>-0.01626661657862379</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1404,19 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1436,371 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>-0.04721276105262012</v>
+        <v>0.04127864631624942</v>
       </c>
       <c r="C24">
-        <v>-0.00906192248494796</v>
+        <v>0.01539556241151336</v>
       </c>
       <c r="D24">
-        <v>0.01233596718037653</v>
+        <v>0.003198942308368167</v>
       </c>
       <c r="E24">
-        <v>0.05446231541481224</v>
+        <v>-0.0489787125450799</v>
       </c>
       <c r="F24">
-        <v>-0.002250334159920437</v>
+        <v>0.008327283803851872</v>
       </c>
       <c r="G24">
-        <v>-0.00836670423017837</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.008343042375770732</v>
+      </c>
+      <c r="H24">
+        <v>0.01556050531642977</v>
+      </c>
+      <c r="I24">
+        <v>-0.0110052147317543</v>
+      </c>
+      <c r="J24">
+        <v>0.009997666403273892</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>-0.05082045121250176</v>
+        <v>0.04434450201395915</v>
       </c>
       <c r="C25">
-        <v>0.001437819645873486</v>
+        <v>0.01514020369062538</v>
       </c>
       <c r="D25">
-        <v>0.01267068363524471</v>
+        <v>0.00149107049651759</v>
       </c>
       <c r="E25">
-        <v>0.04243392401153123</v>
+        <v>-0.04877331160388822</v>
       </c>
       <c r="F25">
-        <v>-0.002482791147906425</v>
+        <v>0.01135551825165928</v>
       </c>
       <c r="G25">
-        <v>-0.008090315872891924</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.003014301415550737</v>
+      </c>
+      <c r="H25">
+        <v>0.009539750599252944</v>
+      </c>
+      <c r="I25">
+        <v>-0.01464582342112277</v>
+      </c>
+      <c r="J25">
+        <v>-3.038014440918375e-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>-0.001921599035832291</v>
+        <v>0.009700055676950318</v>
       </c>
       <c r="C26">
-        <v>-0.01482552065441059</v>
+        <v>0.01538681953998988</v>
       </c>
       <c r="D26">
-        <v>-0.001584299949347843</v>
+        <v>-0.005661589165945008</v>
       </c>
       <c r="E26">
-        <v>0.05814989316124139</v>
+        <v>-0.060081616599681</v>
       </c>
       <c r="F26">
-        <v>-0.02197144572200834</v>
+        <v>0.001887991223012832</v>
       </c>
       <c r="G26">
-        <v>0.01846976096391564</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.009650034133402817</v>
+      </c>
+      <c r="H26">
+        <v>0.03519253896685761</v>
+      </c>
+      <c r="I26">
+        <v>-0.002040145294761357</v>
+      </c>
+      <c r="J26">
+        <v>0.02053566151245566</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B27">
-        <v>-0.1090639100837024</v>
+        <v>0.08958325005061733</v>
       </c>
       <c r="C27">
-        <v>-0.003112049287189925</v>
+        <v>0.01804781090704141</v>
       </c>
       <c r="D27">
-        <v>-0.008006754409193597</v>
+        <v>0.02732521219997376</v>
       </c>
       <c r="E27">
-        <v>0.1113508093891615</v>
+        <v>-0.08330023337370274</v>
       </c>
       <c r="F27">
-        <v>-0.003140951850259985</v>
+        <v>0.04324523492509802</v>
       </c>
       <c r="G27">
-        <v>-0.01656179095456864</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>-0.000985983193063404</v>
+      </c>
+      <c r="H27">
+        <v>0.008559431198620456</v>
+      </c>
+      <c r="I27">
+        <v>-0.0002750129744920945</v>
+      </c>
+      <c r="J27">
+        <v>0.02174558661739908</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>0.02523700416316595</v>
+        <v>0.01208017828883381</v>
       </c>
       <c r="C28">
-        <v>0.2365940559807521</v>
+        <v>-0.2306174564862099</v>
       </c>
       <c r="D28">
-        <v>0.01903311851819651</v>
+        <v>-0.01446227049610943</v>
       </c>
       <c r="E28">
-        <v>0.02212763657390525</v>
+        <v>-0.04151347037400792</v>
       </c>
       <c r="F28">
-        <v>-0.005921919227605069</v>
+        <v>-0.004678714004550899</v>
       </c>
       <c r="G28">
-        <v>-0.04144890203999176</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.0205537812860341</v>
+      </c>
+      <c r="H28">
+        <v>-0.04130301701263249</v>
+      </c>
+      <c r="I28">
+        <v>0.1582818600936592</v>
+      </c>
+      <c r="J28">
+        <v>0.06341906770376336</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>-0.02120828439186117</v>
+        <v>0.01997690984069282</v>
       </c>
       <c r="C29">
-        <v>-0.01511711580751977</v>
+        <v>0.01823217514517649</v>
       </c>
       <c r="D29">
-        <v>-0.01452570198874523</v>
+        <v>0.01598828619720745</v>
       </c>
       <c r="E29">
-        <v>0.04145205471375136</v>
+        <v>-0.03658962873577373</v>
       </c>
       <c r="F29">
-        <v>-0.01664655653324619</v>
+        <v>0.03210584057585455</v>
       </c>
       <c r="G29">
-        <v>0.04790407664990546</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.0197475433585909</v>
+      </c>
+      <c r="H29">
+        <v>0.06041838419806641</v>
+      </c>
+      <c r="I29">
+        <v>0.01157334078661199</v>
+      </c>
+      <c r="J29">
+        <v>0.001935405911133216</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>-0.1051891567296949</v>
+        <v>0.1028149920117862</v>
       </c>
       <c r="C30">
-        <v>0.0009910109800204811</v>
+        <v>0.02798183156806373</v>
       </c>
       <c r="D30">
-        <v>0.001447435664743808</v>
+        <v>0.02463293606965975</v>
       </c>
       <c r="E30">
-        <v>0.1352626244770519</v>
+        <v>-0.1143436155310161</v>
       </c>
       <c r="F30">
-        <v>-0.008928704568267769</v>
+        <v>0.01969041234142491</v>
       </c>
       <c r="G30">
-        <v>-0.06873811711232565</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.02267883692987738</v>
+      </c>
+      <c r="H30">
+        <v>0.01084837593812978</v>
+      </c>
+      <c r="I30">
+        <v>-0.03156915528499195</v>
+      </c>
+      <c r="J30">
+        <v>-0.0134079509677089</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>-0.05660361879037452</v>
+        <v>0.05712765168347505</v>
       </c>
       <c r="C31">
-        <v>-0.009093709509221256</v>
+        <v>0.01640779244897523</v>
       </c>
       <c r="D31">
-        <v>-0.01347192701570402</v>
+        <v>0.01448344297317089</v>
       </c>
       <c r="E31">
-        <v>-0.004772834159932144</v>
+        <v>-0.01723446799310143</v>
       </c>
       <c r="F31">
-        <v>-0.02112887663477884</v>
+        <v>-0.0152059760586844</v>
       </c>
       <c r="G31">
-        <v>0.02266628783207043</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.03752416693571604</v>
+      </c>
+      <c r="H31">
+        <v>0.0495149007679162</v>
+      </c>
+      <c r="I31">
+        <v>0.01813834451971871</v>
+      </c>
+      <c r="J31">
+        <v>0.003074501962895089</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>-0.06716380353201327</v>
+        <v>0.04790353521116154</v>
       </c>
       <c r="C32">
-        <v>-0.01697145200771433</v>
+        <v>0.0406858043800492</v>
       </c>
       <c r="D32">
-        <v>0.003031203758022421</v>
+        <v>0.01320506285202159</v>
       </c>
       <c r="E32">
-        <v>0.1245038572041991</v>
+        <v>-0.1016085305239223</v>
       </c>
       <c r="F32">
-        <v>0.01627304624414741</v>
+        <v>0.04393733039945948</v>
       </c>
       <c r="G32">
-        <v>0.04023558569533452</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.01274656650881228</v>
+      </c>
+      <c r="H32">
+        <v>0.05833634330986694</v>
+      </c>
+      <c r="I32">
+        <v>0.02347794785131145</v>
+      </c>
+      <c r="J32">
+        <v>-0.01888772104738544</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>-0.06941706029813315</v>
+        <v>0.05979282258315269</v>
       </c>
       <c r="C33">
-        <v>-0.02196734785920254</v>
+        <v>0.03917900329907535</v>
       </c>
       <c r="D33">
-        <v>0.001222849217999402</v>
+        <v>0.0006036113041855939</v>
       </c>
       <c r="E33">
-        <v>0.07860026409628232</v>
+        <v>-0.08866902824702311</v>
       </c>
       <c r="F33">
-        <v>-0.03604982991219752</v>
+        <v>0.01458584709554001</v>
       </c>
       <c r="G33">
-        <v>0.02564583853328447</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.01755035481079856</v>
+      </c>
+      <c r="H33">
+        <v>0.05120892401277496</v>
+      </c>
+      <c r="I33">
+        <v>-0.0120426654025849</v>
+      </c>
+      <c r="J33">
+        <v>0.004623030990277658</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>-0.04776892147961774</v>
+        <v>0.04271869840940767</v>
       </c>
       <c r="C34">
-        <v>-0.009161255978844676</v>
+        <v>0.02132148600808883</v>
       </c>
       <c r="D34">
-        <v>0.01122740111325626</v>
+        <v>0.007218025640981869</v>
       </c>
       <c r="E34">
-        <v>0.02735491588925828</v>
+        <v>-0.03891304432360813</v>
       </c>
       <c r="F34">
-        <v>0.002537580042193767</v>
+        <v>0.008073080431609109</v>
       </c>
       <c r="G34">
-        <v>0.01242004852350631</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.0005005723024884463</v>
+      </c>
+      <c r="H34">
+        <v>0.02232785121966039</v>
+      </c>
+      <c r="I34">
+        <v>-0.01195240939708054</v>
+      </c>
+      <c r="J34">
+        <v>-0.005923457305028245</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1820,51 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>-0.011656423137538</v>
+        <v>0.01344267403288436</v>
       </c>
       <c r="C36">
-        <v>0.01040738959358548</v>
+        <v>-0.0007059367535652132</v>
       </c>
       <c r="D36">
-        <v>-0.002431079438595903</v>
+        <v>0.005937759447601811</v>
       </c>
       <c r="E36">
-        <v>0.02791850732029669</v>
+        <v>-0.0302445173331887</v>
       </c>
       <c r="F36">
-        <v>-0.01368401658308484</v>
+        <v>0.01304263839917534</v>
       </c>
       <c r="G36">
-        <v>0.01600677160288235</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.01806835292099156</v>
+      </c>
+      <c r="H36">
+        <v>0.03430323453551772</v>
+      </c>
+      <c r="I36">
+        <v>0.008075753647917022</v>
+      </c>
+      <c r="J36">
+        <v>-0.003962762714305121</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1884,243 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>-0.05446050942257021</v>
+        <v>0.03059480386545421</v>
       </c>
       <c r="C38">
-        <v>-0.0009891099457479714</v>
+        <v>0.007166070305613606</v>
       </c>
       <c r="D38">
-        <v>-0.01773637432543887</v>
+        <v>0.005270813243464471</v>
       </c>
       <c r="E38">
-        <v>0.04009715912013493</v>
+        <v>-0.04703004704823465</v>
       </c>
       <c r="F38">
-        <v>-0.01003738854121549</v>
+        <v>0.02220236015635469</v>
       </c>
       <c r="G38">
-        <v>0.03320133104863363</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.01884009699005076</v>
+      </c>
+      <c r="H38">
+        <v>0.0113318129878093</v>
+      </c>
+      <c r="I38">
+        <v>0.004174408418786377</v>
+      </c>
+      <c r="J38">
+        <v>-0.02092126082493961</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>-0.07671179012676212</v>
+        <v>0.06294363333265539</v>
       </c>
       <c r="C39">
-        <v>-0.006819103455643203</v>
+        <v>0.02958798072062749</v>
       </c>
       <c r="D39">
-        <v>0.007235742035017722</v>
+        <v>0.01713232664014211</v>
       </c>
       <c r="E39">
-        <v>0.05047345374430096</v>
+        <v>-0.06327988909654773</v>
       </c>
       <c r="F39">
-        <v>-0.01837168474528483</v>
+        <v>0.002427547000156063</v>
       </c>
       <c r="G39">
-        <v>-0.006976356690892917</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.009558678714548815</v>
+      </c>
+      <c r="H39">
+        <v>0.01909990171004475</v>
+      </c>
+      <c r="I39">
+        <v>-0.02712477670331955</v>
+      </c>
+      <c r="J39">
+        <v>-0.008760788439096726</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>-0.07260222157635822</v>
+        <v>0.05646269104109137</v>
       </c>
       <c r="C40">
-        <v>-0.0262727132508818</v>
+        <v>0.03252737407707088</v>
       </c>
       <c r="D40">
-        <v>0.01522576615416698</v>
+        <v>0.01642719366642885</v>
       </c>
       <c r="E40">
-        <v>0.1174594955555341</v>
+        <v>-0.1129784254707367</v>
       </c>
       <c r="F40">
-        <v>-0.02958686275863369</v>
+        <v>0.005468004231920186</v>
       </c>
       <c r="G40">
-        <v>0.08803377749663985</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.0002144155077412171</v>
+      </c>
+      <c r="H40">
+        <v>0.08053165251558228</v>
+      </c>
+      <c r="I40">
+        <v>0.01688409379562376</v>
+      </c>
+      <c r="J40">
+        <v>0.02039873959700221</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>-0.003379156380524899</v>
+        <v>0.0008798135960762696</v>
       </c>
       <c r="C41">
-        <v>-0.00907587131396834</v>
+        <v>0.009247561493847794</v>
       </c>
       <c r="D41">
-        <v>-0.01137479002448721</v>
+        <v>0.002864718922810747</v>
       </c>
       <c r="E41">
-        <v>0.01901961881472996</v>
+        <v>-0.0190815746029295</v>
       </c>
       <c r="F41">
-        <v>-0.0282411962707077</v>
+        <v>0.008961711688834388</v>
       </c>
       <c r="G41">
-        <v>0.03172580407241897</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.03020045589621415</v>
+      </c>
+      <c r="H41">
+        <v>0.03962120789138008</v>
+      </c>
+      <c r="I41">
+        <v>0.02458593083254323</v>
+      </c>
+      <c r="J41">
+        <v>0.0151238100602528</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B42">
-        <v>-0.1462296993368462</v>
+        <v>0.2476070828957642</v>
       </c>
       <c r="C42">
-        <v>-0.1716594725030815</v>
+        <v>0.1079224223008264</v>
       </c>
       <c r="D42">
-        <v>0.9213968780321443</v>
+        <v>-0.9127390859930233</v>
       </c>
       <c r="E42">
-        <v>-0.137171034111204</v>
+        <v>0.1399316894129008</v>
       </c>
       <c r="F42">
-        <v>0.02984364118203735</v>
+        <v>-0.2044509574595911</v>
       </c>
       <c r="G42">
-        <v>-0.1587942074211205</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.007252787916242827</v>
+      </c>
+      <c r="H42">
+        <v>-0.01493356602576154</v>
+      </c>
+      <c r="I42">
+        <v>0.04437467136392366</v>
+      </c>
+      <c r="J42">
+        <v>0.0212430602798479</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>-0.008305778720988395</v>
+        <v>0.002842214305445667</v>
       </c>
       <c r="C43">
-        <v>-0.01143832442667433</v>
+        <v>0.01188396828484146</v>
       </c>
       <c r="D43">
-        <v>-0.01239682194927606</v>
+        <v>0.003084943391001392</v>
       </c>
       <c r="E43">
-        <v>0.0384014781898787</v>
+        <v>-0.03160649619559831</v>
       </c>
       <c r="F43">
-        <v>-2.137899210362946e-05</v>
+        <v>0.009517582561518519</v>
       </c>
       <c r="G43">
-        <v>0.02543074091918196</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.008203715893521061</v>
+      </c>
+      <c r="H43">
+        <v>0.03657538837071912</v>
+      </c>
+      <c r="I43">
+        <v>0.01393756042067137</v>
+      </c>
+      <c r="J43">
+        <v>0.0124569466275137</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>-0.04479118577925062</v>
+        <v>0.02968925453325903</v>
       </c>
       <c r="C44">
-        <v>-0.03144820958314191</v>
+        <v>0.03005608072014446</v>
       </c>
       <c r="D44">
-        <v>0.008574833385065024</v>
+        <v>-0.005713214429125126</v>
       </c>
       <c r="E44">
-        <v>0.1182575158742225</v>
+        <v>-0.1200852435866884</v>
       </c>
       <c r="F44">
-        <v>-0.0592953027081226</v>
+        <v>0.03907979654264373</v>
       </c>
       <c r="G44">
-        <v>0.1285775019338706</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.02966258267470643</v>
+      </c>
+      <c r="H44">
+        <v>0.1151873046311181</v>
+      </c>
+      <c r="I44">
+        <v>0.03653279358318492</v>
+      </c>
+      <c r="J44">
+        <v>0.002535815620894536</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +2140,115 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>-0.0220882928302581</v>
+        <v>0.02145626549592658</v>
       </c>
       <c r="C46">
-        <v>-0.01149430159009454</v>
+        <v>0.02404187300500837</v>
       </c>
       <c r="D46">
-        <v>-0.02080830740077294</v>
+        <v>0.01431989360047979</v>
       </c>
       <c r="E46">
-        <v>0.02793803793144158</v>
+        <v>-0.0466599142076157</v>
       </c>
       <c r="F46">
-        <v>-0.03040632582159234</v>
+        <v>0.01562621379670356</v>
       </c>
       <c r="G46">
-        <v>0.04659849687033308</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.01850003333596879</v>
+      </c>
+      <c r="H46">
+        <v>0.06282700710690071</v>
+      </c>
+      <c r="I46">
+        <v>0.01518210685604882</v>
+      </c>
+      <c r="J46">
+        <v>0.0212867093625725</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>-0.07992129535404484</v>
+        <v>0.0885057927376416</v>
       </c>
       <c r="C47">
-        <v>-0.001588244249745079</v>
+        <v>0.01312758053017766</v>
       </c>
       <c r="D47">
-        <v>-0.01653535753032784</v>
+        <v>0.02180356697106276</v>
       </c>
       <c r="E47">
-        <v>-0.006456012116867632</v>
+        <v>-0.00343703218867889</v>
       </c>
       <c r="F47">
-        <v>-0.01393569340300875</v>
+        <v>-0.001929278668806043</v>
       </c>
       <c r="G47">
-        <v>0.0493652109768614</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.03481774532116365</v>
+      </c>
+      <c r="H47">
+        <v>0.06886274850488977</v>
+      </c>
+      <c r="I47">
+        <v>0.02471943489542316</v>
+      </c>
+      <c r="J47">
+        <v>0.01555069695289152</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>-0.01368405181601813</v>
+        <v>0.01419884543641226</v>
       </c>
       <c r="C48">
-        <v>-0.01272701441336411</v>
+        <v>0.01696017961763363</v>
       </c>
       <c r="D48">
-        <v>-0.01024365396274462</v>
+        <v>0.004479568084586218</v>
       </c>
       <c r="E48">
-        <v>0.04050140235192652</v>
+        <v>-0.04116473790441108</v>
       </c>
       <c r="F48">
-        <v>-0.01898041893607872</v>
+        <v>0.01421109107056265</v>
       </c>
       <c r="G48">
-        <v>0.0119779519477739</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.01049330776987063</v>
+      </c>
+      <c r="H48">
+        <v>0.02340728657813157</v>
+      </c>
+      <c r="I48">
+        <v>0.0117988361612192</v>
+      </c>
+      <c r="J48">
+        <v>0.01332655069208378</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +2268,83 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>-0.07900128250786942</v>
+        <v>0.0815717269938868</v>
       </c>
       <c r="C50">
-        <v>-0.02463980852195403</v>
+        <v>0.0336182902040324</v>
       </c>
       <c r="D50">
-        <v>-0.01814266840229158</v>
+        <v>0.01552748777008948</v>
       </c>
       <c r="E50">
-        <v>-0.01510349241501896</v>
+        <v>-0.01083395074979963</v>
       </c>
       <c r="F50">
-        <v>-0.01875008396800257</v>
+        <v>0.001119136674328966</v>
       </c>
       <c r="G50">
-        <v>0.02686076879762697</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.008416894416054905</v>
+      </c>
+      <c r="H50">
+        <v>0.05052179984706209</v>
+      </c>
+      <c r="I50">
+        <v>0.01916405136167606</v>
+      </c>
+      <c r="J50">
+        <v>-0.03107144512716699</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>-0.06686958814199692</v>
+        <v>0.04736937250255269</v>
       </c>
       <c r="C51">
-        <v>0.02703497827252653</v>
+        <v>-0.008539097418617695</v>
       </c>
       <c r="D51">
-        <v>0.001396710572564773</v>
+        <v>0.004809869941132091</v>
       </c>
       <c r="E51">
-        <v>0.06956067868585898</v>
+        <v>-0.1003122359507917</v>
       </c>
       <c r="F51">
-        <v>-0.05731341889927968</v>
+        <v>0.004166347846147386</v>
       </c>
       <c r="G51">
-        <v>0.01928407332136274</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.04438161151837523</v>
+      </c>
+      <c r="H51">
+        <v>0.05622457553327929</v>
+      </c>
+      <c r="I51">
+        <v>0.03988915071368406</v>
+      </c>
+      <c r="J51">
+        <v>0.01856874195586524</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2364,307 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>-0.1470430369450069</v>
+        <v>0.1295468593486614</v>
       </c>
       <c r="C53">
-        <v>-0.004177267821971444</v>
+        <v>0.03529093863785474</v>
       </c>
       <c r="D53">
-        <v>-0.04256140668768919</v>
+        <v>0.04790863909435183</v>
       </c>
       <c r="E53">
-        <v>-0.01777743878960675</v>
+        <v>0.02296470662842112</v>
       </c>
       <c r="F53">
-        <v>-0.007327136482452209</v>
+        <v>-0.009980084453166279</v>
       </c>
       <c r="G53">
-        <v>0.01890445312812256</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.02892440966030442</v>
+      </c>
+      <c r="H53">
+        <v>0.01363268503057907</v>
+      </c>
+      <c r="I53">
+        <v>0.01687897674436948</v>
+      </c>
+      <c r="J53">
+        <v>0.07179618112715538</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>-0.02168734516338585</v>
+        <v>0.02165134964884508</v>
       </c>
       <c r="C54">
-        <v>0.008598077575748729</v>
+        <v>0.002737334265131457</v>
       </c>
       <c r="D54">
-        <v>-0.02113499957480753</v>
+        <v>0.02328332664839765</v>
       </c>
       <c r="E54">
-        <v>0.03869337254229564</v>
+        <v>-0.04027265325282314</v>
       </c>
       <c r="F54">
-        <v>-0.04785687106917597</v>
+        <v>0.02573936052484171</v>
       </c>
       <c r="G54">
-        <v>0.06172727854301284</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.03790940087005158</v>
+      </c>
+      <c r="H54">
+        <v>0.06829300867480723</v>
+      </c>
+      <c r="I54">
+        <v>0.0460368108449276</v>
+      </c>
+      <c r="J54">
+        <v>-0.0002914510390085581</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>-0.09759096859736846</v>
+        <v>0.1028194353440147</v>
       </c>
       <c r="C55">
-        <v>0.005116492535662189</v>
+        <v>0.01599779936523588</v>
       </c>
       <c r="D55">
-        <v>-0.03386345529985905</v>
+        <v>0.0314908410380095</v>
       </c>
       <c r="E55">
-        <v>0.01684573637369314</v>
+        <v>0.02049735725792726</v>
       </c>
       <c r="F55">
-        <v>0.01459174155686079</v>
+        <v>0.03053338827481814</v>
       </c>
       <c r="G55">
-        <v>0.009256471769375373</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.0007269939265304368</v>
+      </c>
+      <c r="H55">
+        <v>0.02880495594782448</v>
+      </c>
+      <c r="I55">
+        <v>-0.0008281367644675293</v>
+      </c>
+      <c r="J55">
+        <v>0.06541936771393056</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>-0.1806651947805337</v>
+        <v>0.1684668790533543</v>
       </c>
       <c r="C56">
-        <v>0.0254151119010495</v>
+        <v>0.01600830890630524</v>
       </c>
       <c r="D56">
-        <v>-0.08748775815766979</v>
+        <v>0.09064329352903402</v>
       </c>
       <c r="E56">
-        <v>-0.05972773180611599</v>
+        <v>0.07269492877697742</v>
       </c>
       <c r="F56">
-        <v>0.05515397287609246</v>
+        <v>0.0006248071114719326</v>
       </c>
       <c r="G56">
-        <v>-0.01329731117834189</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.0188776401393885</v>
+      </c>
+      <c r="H56">
+        <v>-0.03228073182731395</v>
+      </c>
+      <c r="I56">
+        <v>-0.02682270271313788</v>
+      </c>
+      <c r="J56">
+        <v>0.08992757421521715</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B57">
-        <v>-0.09421277350970582</v>
+        <v>0.07351163199014449</v>
       </c>
       <c r="C57">
-        <v>-0.01721604021328087</v>
+        <v>0.0225812125254432</v>
       </c>
       <c r="D57">
-        <v>-0.01522352424050685</v>
+        <v>0.007246042544145692</v>
       </c>
       <c r="E57">
-        <v>0.07390465936998859</v>
+        <v>-0.07882128469166048</v>
       </c>
       <c r="F57">
-        <v>-0.001950084136795314</v>
+        <v>0.01219049792252865</v>
       </c>
       <c r="G57">
-        <v>0.0410769849600448</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.001356968522587792</v>
+      </c>
+      <c r="H57">
+        <v>0.04807539056143267</v>
+      </c>
+      <c r="I57">
+        <v>-0.01354043913074538</v>
+      </c>
+      <c r="J57">
+        <v>0.01950497966335316</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>-0.1617214494320356</v>
+        <v>0.1983672196698287</v>
       </c>
       <c r="C58">
-        <v>-0.0002400784127607476</v>
+        <v>0.02967171075051171</v>
       </c>
       <c r="D58">
-        <v>0.06767088082076927</v>
+        <v>-0.02145279601517032</v>
       </c>
       <c r="E58">
-        <v>0.1085953435383907</v>
+        <v>-0.167016223288756</v>
       </c>
       <c r="F58">
-        <v>0.08693695972909904</v>
+        <v>0.03213357794111386</v>
       </c>
       <c r="G58">
-        <v>0.2692501249276513</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.1858603063890449</v>
+      </c>
+      <c r="H58">
+        <v>0.3163446007636141</v>
+      </c>
+      <c r="I58">
+        <v>0.1278039450966014</v>
+      </c>
+      <c r="J58">
+        <v>-0.4314309589402561</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>0.01414454662842081</v>
+        <v>0.01781881266603763</v>
       </c>
       <c r="C59">
-        <v>0.2025022419687505</v>
+        <v>-0.1992009685675507</v>
       </c>
       <c r="D59">
-        <v>-0.01696241518023468</v>
+        <v>0.02047770062073715</v>
       </c>
       <c r="E59">
-        <v>0.03903955349998751</v>
+        <v>-0.0550588807275347</v>
       </c>
       <c r="F59">
-        <v>-0.003810860229937221</v>
+        <v>-0.0149742565859727</v>
       </c>
       <c r="G59">
-        <v>-0.03871534372104924</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.001005537850512761</v>
+      </c>
+      <c r="H59">
+        <v>-0.03103020120178647</v>
+      </c>
+      <c r="I59">
+        <v>0.08328120724802728</v>
+      </c>
+      <c r="J59">
+        <v>0.006336499898110051</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>-0.175498817578177</v>
+        <v>0.1795424378249369</v>
       </c>
       <c r="C60">
-        <v>0.1282660285612702</v>
+        <v>-0.06991898157873333</v>
       </c>
       <c r="D60">
-        <v>-0.0150598906876484</v>
+        <v>0.0230792701611419</v>
       </c>
       <c r="E60">
-        <v>0.1791319033619271</v>
+        <v>-0.2047036838448312</v>
       </c>
       <c r="F60">
-        <v>-0.03407790866622643</v>
+        <v>-0.03609906248556994</v>
       </c>
       <c r="G60">
-        <v>-0.1707999011697514</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.06033355100949039</v>
+      </c>
+      <c r="H60">
+        <v>-0.2296860255709016</v>
+      </c>
+      <c r="I60">
+        <v>-0.1146841065914588</v>
+      </c>
+      <c r="J60">
+        <v>-0.01237896053989149</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>-0.04942088149548628</v>
+        <v>0.0389892552773656</v>
       </c>
       <c r="C61">
-        <v>-0.001571311553266147</v>
+        <v>0.01558564585380375</v>
       </c>
       <c r="D61">
-        <v>0.01269620499138872</v>
+        <v>0.0003694993721956342</v>
       </c>
       <c r="E61">
-        <v>0.04646018556373873</v>
+        <v>-0.04832294109089966</v>
       </c>
       <c r="F61">
-        <v>-0.01545279410687409</v>
+        <v>0.005019850076865119</v>
       </c>
       <c r="G61">
-        <v>-0.02213494361538508</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.006146808922501126</v>
+      </c>
+      <c r="H61">
+        <v>0.004079068635401768</v>
+      </c>
+      <c r="I61">
+        <v>-0.03189612087992699</v>
+      </c>
+      <c r="J61">
+        <v>-0.02306746885540519</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2684,243 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>-0.03788644255712483</v>
+        <v>0.0297476369013</v>
       </c>
       <c r="C63">
-        <v>0.01190050187147202</v>
+        <v>0.009301760347440954</v>
       </c>
       <c r="D63">
-        <v>-0.008226610660714312</v>
+        <v>0.00766887397401019</v>
       </c>
       <c r="E63">
-        <v>0.04539926480733912</v>
+        <v>-0.03756192287606019</v>
       </c>
       <c r="F63">
-        <v>-0.01275405873733518</v>
+        <v>0.01284308425718767</v>
       </c>
       <c r="G63">
-        <v>0.02130136136522565</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.008753569031663081</v>
+      </c>
+      <c r="H63">
+        <v>0.04311362929694344</v>
+      </c>
+      <c r="I63">
+        <v>0.02655290511048374</v>
+      </c>
+      <c r="J63">
+        <v>0.04575902286535676</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>-0.09068597947924291</v>
+        <v>0.06664717197922022</v>
       </c>
       <c r="C64">
-        <v>-0.01986035327425621</v>
+        <v>0.03626898167666244</v>
       </c>
       <c r="D64">
-        <v>-0.04754812212129784</v>
+        <v>0.03180751355599288</v>
       </c>
       <c r="E64">
-        <v>0.07628848860823356</v>
+        <v>-0.05789100022751735</v>
       </c>
       <c r="F64">
-        <v>-0.08916788982142469</v>
+        <v>0.05778180362960766</v>
       </c>
       <c r="G64">
-        <v>-0.04997738356814951</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.06815494708430277</v>
+      </c>
+      <c r="H64">
+        <v>-0.01468983675915152</v>
+      </c>
+      <c r="I64">
+        <v>0.0118534429719286</v>
+      </c>
+      <c r="J64">
+        <v>0.06436557806864115</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>0.01141433975565514</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>0.004092025040069034</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>0.0008372876403777635</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>-0.004462256464045688</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>0.002194385797291939</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.01332668842070083</v>
+      </c>
+      <c r="H65">
+        <v>0.002267336376551032</v>
+      </c>
+      <c r="I65">
+        <v>0.0005034445795763917</v>
+      </c>
+      <c r="J65">
+        <v>-0.00211266308029064</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>-0.1023923122337922</v>
+        <v>0.07440669824165978</v>
       </c>
       <c r="C66">
-        <v>-0.009274784976493424</v>
+        <v>0.0407865060803253</v>
       </c>
       <c r="D66">
-        <v>-0.0260686074568899</v>
+        <v>0.03971300429235979</v>
       </c>
       <c r="E66">
-        <v>0.09247468829691412</v>
+        <v>-0.08781341958327073</v>
       </c>
       <c r="F66">
-        <v>-0.03407610850526598</v>
+        <v>0.003460202284807615</v>
       </c>
       <c r="G66">
-        <v>-0.0008544347687358556</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.01167429153541411</v>
+      </c>
+      <c r="H66">
+        <v>0.01634139996686131</v>
+      </c>
+      <c r="I66">
+        <v>-0.0497195223195836</v>
+      </c>
+      <c r="J66">
+        <v>0.01193224795939864</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>-0.06061497268794611</v>
+        <v>0.04045235397254885</v>
       </c>
       <c r="C67">
-        <v>0.02155273478241814</v>
+        <v>-0.00940924481514473</v>
       </c>
       <c r="D67">
-        <v>-0.007011353729595005</v>
+        <v>0.004604952199483574</v>
       </c>
       <c r="E67">
-        <v>0.03312284901383416</v>
+        <v>-0.04189238001937454</v>
       </c>
       <c r="F67">
-        <v>-0.008584421925188268</v>
+        <v>0.007639499700522806</v>
       </c>
       <c r="G67">
-        <v>0.02917614537950141</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.02498709763282395</v>
+      </c>
+      <c r="H67">
+        <v>-0.00155044723783247</v>
+      </c>
+      <c r="I67">
+        <v>-0.03584783451093201</v>
+      </c>
+      <c r="J67">
+        <v>-0.012847116399589</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>0.01332492434945372</v>
+        <v>0.02662559385113332</v>
       </c>
       <c r="C68">
-        <v>0.2456867058600246</v>
+        <v>-0.2380925121971988</v>
       </c>
       <c r="D68">
-        <v>0.004618865720004171</v>
+        <v>0.01193618639570227</v>
       </c>
       <c r="E68">
-        <v>0.02882893813367235</v>
+        <v>-0.04035065681365276</v>
       </c>
       <c r="F68">
-        <v>0.01077167116297121</v>
+        <v>-0.002165849479435942</v>
       </c>
       <c r="G68">
-        <v>-0.02617902249452941</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.01254193380680338</v>
+      </c>
+      <c r="H68">
+        <v>-0.03686465871190529</v>
+      </c>
+      <c r="I68">
+        <v>0.1718817725582951</v>
+      </c>
+      <c r="J68">
+        <v>0.03445543083373028</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>-0.06495400552221606</v>
+        <v>0.06828570645173099</v>
       </c>
       <c r="C69">
-        <v>-0.002351809877860173</v>
+        <v>0.01211897926591084</v>
       </c>
       <c r="D69">
-        <v>-0.02660146642164298</v>
+        <v>0.02911358399244022</v>
       </c>
       <c r="E69">
-        <v>0.002408878264804288</v>
+        <v>-0.01167483987604009</v>
       </c>
       <c r="F69">
-        <v>-0.009698315449386265</v>
+        <v>-0.007644412299338882</v>
       </c>
       <c r="G69">
-        <v>0.0198421332078115</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.02733989058213141</v>
+      </c>
+      <c r="H69">
+        <v>0.04802296360598336</v>
+      </c>
+      <c r="I69">
+        <v>-0.0005637195879004162</v>
+      </c>
+      <c r="J69">
+        <v>0.01065605425570126</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2940,275 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>0.005170844022191206</v>
+        <v>0.03281948018099453</v>
       </c>
       <c r="C71">
-        <v>0.2392763229044505</v>
+        <v>-0.2409647136179433</v>
       </c>
       <c r="D71">
-        <v>0.008409313847358706</v>
+        <v>-0.00939019565252967</v>
       </c>
       <c r="E71">
-        <v>0.05365801454077328</v>
+        <v>-0.06252382400369655</v>
       </c>
       <c r="F71">
-        <v>0.001924866720313622</v>
+        <v>-0.02917442496188504</v>
       </c>
       <c r="G71">
-        <v>-0.1114524821365648</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.006678641419000117</v>
+      </c>
+      <c r="H71">
+        <v>-0.0511077390726109</v>
+      </c>
+      <c r="I71">
+        <v>0.1553775687348429</v>
+      </c>
+      <c r="J71">
+        <v>-0.005378787364537832</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>-0.105153303433845</v>
+        <v>0.1134869787040386</v>
       </c>
       <c r="C72">
-        <v>0.02790550990014064</v>
+        <v>-0.008767179788278802</v>
       </c>
       <c r="D72">
-        <v>-0.04268977321302921</v>
+        <v>0.05948603787870438</v>
       </c>
       <c r="E72">
-        <v>0.06751176382183165</v>
+        <v>-0.08284870105140522</v>
       </c>
       <c r="F72">
-        <v>-0.006030433828428319</v>
+        <v>0.0222786083805424</v>
       </c>
       <c r="G72">
-        <v>0.03291748409015979</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.02820691172946874</v>
+      </c>
+      <c r="H72">
+        <v>0.001342778850273775</v>
+      </c>
+      <c r="I72">
+        <v>0.005927989987130611</v>
+      </c>
+      <c r="J72">
+        <v>-0.07331098268515572</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>-0.2688725739872319</v>
+        <v>0.2731709530822637</v>
       </c>
       <c r="C73">
-        <v>0.2266161677085049</v>
+        <v>-0.1456916709024469</v>
       </c>
       <c r="D73">
-        <v>0.02769050789559006</v>
+        <v>0.001678061302093753</v>
       </c>
       <c r="E73">
-        <v>0.2818959504202097</v>
+        <v>-0.3191516994886019</v>
       </c>
       <c r="F73">
-        <v>0.001621589279284846</v>
+        <v>-0.07608923718198883</v>
       </c>
       <c r="G73">
-        <v>-0.4078472168126486</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.1382044642132236</v>
+      </c>
+      <c r="H73">
+        <v>-0.4187890295423424</v>
+      </c>
+      <c r="I73">
+        <v>-0.3363308790574087</v>
+      </c>
+      <c r="J73">
+        <v>-0.2069951886437459</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>-0.1554222270900956</v>
+        <v>0.1524859929597309</v>
       </c>
       <c r="C74">
-        <v>0.0139990879793428</v>
+        <v>0.01047987107670714</v>
       </c>
       <c r="D74">
-        <v>-0.05123106316426909</v>
+        <v>0.04833348917474352</v>
       </c>
       <c r="E74">
-        <v>0.007922592327036491</v>
+        <v>0.03067832111126421</v>
       </c>
       <c r="F74">
-        <v>0.04175807175083675</v>
+        <v>-0.0007665856078353865</v>
       </c>
       <c r="G74">
-        <v>-0.01611372073864253</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.01367144132209788</v>
+      </c>
+      <c r="H74">
+        <v>-0.02296220655535081</v>
+      </c>
+      <c r="I74">
+        <v>-0.02834543738049221</v>
+      </c>
+      <c r="J74">
+        <v>0.09656268536655394</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>-0.2375942372452502</v>
+        <v>0.2435720501315313</v>
       </c>
       <c r="C75">
-        <v>0.01988767517057038</v>
+        <v>0.02222348027751283</v>
       </c>
       <c r="D75">
-        <v>-0.06741415649678338</v>
+        <v>0.1033789056552555</v>
       </c>
       <c r="E75">
-        <v>-0.1091425963186601</v>
+        <v>0.1193125017830533</v>
       </c>
       <c r="F75">
-        <v>0.04145839288197217</v>
+        <v>-0.02627494829439649</v>
       </c>
       <c r="G75">
-        <v>-0.007452493287036148</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.01410310736632485</v>
+      </c>
+      <c r="H75">
+        <v>-0.01331174406551134</v>
+      </c>
+      <c r="I75">
+        <v>0.008369810656300934</v>
+      </c>
+      <c r="J75">
+        <v>0.1606057008048173</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>-0.2407306548664601</v>
+        <v>0.2611052387778542</v>
       </c>
       <c r="C76">
-        <v>0.01992769464984188</v>
+        <v>0.01352211025993067</v>
       </c>
       <c r="D76">
-        <v>-0.110197874124719</v>
+        <v>0.1336136685577502</v>
       </c>
       <c r="E76">
-        <v>-0.08857279428776071</v>
+        <v>0.1458511445322724</v>
       </c>
       <c r="F76">
-        <v>0.05022684661013723</v>
+        <v>0.001184661936686826</v>
       </c>
       <c r="G76">
-        <v>-0.02185333745681621</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.02294898740589924</v>
+      </c>
+      <c r="H76">
+        <v>-0.01024966570183329</v>
+      </c>
+      <c r="I76">
+        <v>-0.06279771743759785</v>
+      </c>
+      <c r="J76">
+        <v>0.1748458210988744</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>-0.1259677901680815</v>
+        <v>0.1316518911743721</v>
       </c>
       <c r="C77">
-        <v>-0.01057511959989718</v>
+        <v>0.04206297061485259</v>
       </c>
       <c r="D77">
-        <v>0.07588241304893351</v>
+        <v>-0.05869469375099735</v>
       </c>
       <c r="E77">
-        <v>0.1618584942571153</v>
+        <v>-0.1626308153516823</v>
       </c>
       <c r="F77">
-        <v>0.006894312873725548</v>
+        <v>0.04706467257159111</v>
       </c>
       <c r="G77">
-        <v>0.1373231385756847</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.03052473188872218</v>
+      </c>
+      <c r="H77">
+        <v>0.156931888168158</v>
+      </c>
+      <c r="I77">
+        <v>0.1579786161318146</v>
+      </c>
+      <c r="J77">
+        <v>0.09058552188568578</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>-0.09588778503810633</v>
+        <v>0.09119721964788997</v>
       </c>
       <c r="C78">
-        <v>-0.02417956747283447</v>
+        <v>0.05018127324979203</v>
       </c>
       <c r="D78">
-        <v>0.02693060960484012</v>
+        <v>-0.0054512650273849</v>
       </c>
       <c r="E78">
-        <v>0.07666078784603382</v>
+        <v>-0.08755460168102383</v>
       </c>
       <c r="F78">
-        <v>-0.005639555061795355</v>
+        <v>0.03640740516216399</v>
       </c>
       <c r="G78">
-        <v>-0.02536141646547736</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.004385803983930352</v>
+      </c>
+      <c r="H78">
+        <v>0.01179054625625311</v>
+      </c>
+      <c r="I78">
+        <v>0.03164397537550189</v>
+      </c>
+      <c r="J78">
+        <v>0.01738223553995947</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +3228,83 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>-0.07501140409783889</v>
+        <v>0.0932356253035703</v>
       </c>
       <c r="C80">
-        <v>0.01528670565609933</v>
+        <v>-0.09182225963685588</v>
       </c>
       <c r="D80">
-        <v>0.01015931235994605</v>
+        <v>-0.1771192854158382</v>
       </c>
       <c r="E80">
-        <v>-0.01558599227148732</v>
+        <v>0.1743159599505928</v>
       </c>
       <c r="F80">
-        <v>0.05984089271292173</v>
+        <v>0.9305291623567731</v>
       </c>
       <c r="G80">
-        <v>0.2451004025266934</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.05442526038935111</v>
+      </c>
+      <c r="H80">
+        <v>-0.1604517335007448</v>
+      </c>
+      <c r="I80">
+        <v>-0.04179219697563292</v>
+      </c>
+      <c r="J80">
+        <v>-0.09323162620572958</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>-0.163935012736838</v>
+        <v>0.1729492380706653</v>
       </c>
       <c r="C81">
-        <v>0.01133111327625879</v>
+        <v>0.008769312992454873</v>
       </c>
       <c r="D81">
-        <v>-0.06052797752847408</v>
+        <v>0.08906296168620943</v>
       </c>
       <c r="E81">
-        <v>-0.1157603936254305</v>
+        <v>0.1389487044677023</v>
       </c>
       <c r="F81">
-        <v>0.06607183410272327</v>
+        <v>-0.02491027516887777</v>
       </c>
       <c r="G81">
-        <v>-0.005850690012904832</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.01815003199695411</v>
+      </c>
+      <c r="H81">
+        <v>-0.0114242866465044</v>
+      </c>
+      <c r="I81">
+        <v>-0.007018333877664356</v>
+      </c>
+      <c r="J81">
+        <v>0.1038604753362113</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +3324,51 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>-0.08075803290771651</v>
+        <v>0.06513951284065206</v>
       </c>
       <c r="C83">
-        <v>-0.023515000574943</v>
+        <v>0.03344197451650096</v>
       </c>
       <c r="D83">
-        <v>0.09590360835393964</v>
+        <v>-0.04517339208568608</v>
       </c>
       <c r="E83">
-        <v>0.03944158885253695</v>
+        <v>-0.06152803555637682</v>
       </c>
       <c r="F83">
-        <v>-0.06902922031416088</v>
+        <v>-0.009528773387104084</v>
       </c>
       <c r="G83">
-        <v>0.02738949537316939</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.04873605148378937</v>
+      </c>
+      <c r="H83">
+        <v>0.0401441189184668</v>
+      </c>
+      <c r="I83">
+        <v>0.009267422046019564</v>
+      </c>
+      <c r="J83">
+        <v>0.09085356107295403</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +3388,371 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>-0.2448309035276006</v>
+        <v>0.2553731730803456</v>
       </c>
       <c r="C85">
-        <v>-0.03903177383414642</v>
+        <v>0.05364719093300128</v>
       </c>
       <c r="D85">
-        <v>-0.05833938667837557</v>
+        <v>0.08786421519214965</v>
       </c>
       <c r="E85">
-        <v>-0.116493621476522</v>
+        <v>0.1448388463763455</v>
       </c>
       <c r="F85">
-        <v>0.03487167997863496</v>
+        <v>0.007221552130439063</v>
       </c>
       <c r="G85">
-        <v>0.014651445067689</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.01625802292676119</v>
+      </c>
+      <c r="H85">
+        <v>0.02474591516859648</v>
+      </c>
+      <c r="I85">
+        <v>-0.008734451083353505</v>
+      </c>
+      <c r="J85">
+        <v>0.1966942763992403</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>-0.04661424422166544</v>
+        <v>0.03096954318967184</v>
       </c>
       <c r="C86">
-        <v>-0.02808352203261666</v>
+        <v>0.04132456638267984</v>
       </c>
       <c r="D86">
-        <v>-0.003749596950350728</v>
+        <v>0.003251080977504252</v>
       </c>
       <c r="E86">
-        <v>0.05123825170071762</v>
+        <v>-0.05707107521810929</v>
       </c>
       <c r="F86">
-        <v>0.004786629595155269</v>
+        <v>0.03433927332202001</v>
       </c>
       <c r="G86">
-        <v>0.030049301043418</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.005240456594053532</v>
+      </c>
+      <c r="H86">
+        <v>0.03702671211272553</v>
+      </c>
+      <c r="I86">
+        <v>0.0673152861073789</v>
+      </c>
+      <c r="J86">
+        <v>-0.01994511695444826</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>-0.03132501680610974</v>
+        <v>0.03875855205881766</v>
       </c>
       <c r="C87">
-        <v>0.05149429061511982</v>
+        <v>-0.02463318082678437</v>
       </c>
       <c r="D87">
-        <v>-0.008204398203849642</v>
+        <v>0.001176522967290189</v>
       </c>
       <c r="E87">
-        <v>0.06080121227160114</v>
+        <v>-0.08837833242693613</v>
       </c>
       <c r="F87">
-        <v>-0.02740171653776784</v>
+        <v>0.01812098700736713</v>
       </c>
       <c r="G87">
-        <v>-0.1288303826917666</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.01488223770561925</v>
+      </c>
+      <c r="H87">
+        <v>-0.01685514343917906</v>
+      </c>
+      <c r="I87">
+        <v>0.00253748466980202</v>
+      </c>
+      <c r="J87">
+        <v>-0.09026610609508953</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>-0.03808724610461435</v>
+        <v>0.02227755124094756</v>
       </c>
       <c r="C88">
-        <v>-0.02032108265933015</v>
+        <v>0.01687539793667527</v>
       </c>
       <c r="D88">
-        <v>-0.006392133589754898</v>
+        <v>0.01039045977151388</v>
       </c>
       <c r="E88">
-        <v>0.0009009888791241308</v>
+        <v>-0.002847507162660765</v>
       </c>
       <c r="F88">
-        <v>-0.0003418806024452433</v>
+        <v>0.02233591605173183</v>
       </c>
       <c r="G88">
-        <v>0.06542019384957551</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.03173325259548477</v>
+      </c>
+      <c r="H88">
+        <v>0.04523239796530837</v>
+      </c>
+      <c r="I88">
+        <v>-0.0117114161476574</v>
+      </c>
+      <c r="J88">
+        <v>-0.02663701440030739</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>0.03007969559196165</v>
+        <v>0.03893725366320325</v>
       </c>
       <c r="C89">
-        <v>0.4305442832398418</v>
+        <v>-0.3996213686499731</v>
       </c>
       <c r="D89">
-        <v>0.0960849971662045</v>
+        <v>-0.03132862084871073</v>
       </c>
       <c r="E89">
-        <v>-0.0427891228664662</v>
+        <v>-0.04029443106553891</v>
       </c>
       <c r="F89">
-        <v>-0.02958909803884402</v>
+        <v>-0.05820857112137845</v>
       </c>
       <c r="G89">
-        <v>0.03408689082902441</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.07053086010429428</v>
+      </c>
+      <c r="H89">
+        <v>0.01043088473522514</v>
+      </c>
+      <c r="I89">
+        <v>0.2764494857417892</v>
+      </c>
+      <c r="J89">
+        <v>0.08541894803106077</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>0.02975572684836364</v>
+        <v>0.02271715906685868</v>
       </c>
       <c r="C90">
-        <v>0.308912339590228</v>
+        <v>-0.3335341086693333</v>
       </c>
       <c r="D90">
-        <v>0.02191579173198915</v>
+        <v>-0.01287393265195899</v>
       </c>
       <c r="E90">
-        <v>0.02192607401152883</v>
+        <v>-0.02851398681518245</v>
       </c>
       <c r="F90">
-        <v>-0.0005959317089220472</v>
+        <v>-0.002750999666734417</v>
       </c>
       <c r="G90">
-        <v>-0.07512940654024693</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.01624591526961099</v>
+      </c>
+      <c r="H90">
+        <v>-0.04608932869176668</v>
+      </c>
+      <c r="I90">
+        <v>0.1948886148994044</v>
+      </c>
+      <c r="J90">
+        <v>0.05436775964549524</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>-0.312774217666872</v>
+        <v>0.3189250752787181</v>
       </c>
       <c r="C91">
-        <v>-0.009070658127047665</v>
+        <v>0.03962887010889835</v>
       </c>
       <c r="D91">
-        <v>-0.08285103685700966</v>
+        <v>0.1102991430339989</v>
       </c>
       <c r="E91">
-        <v>-0.2612005502554689</v>
+        <v>0.274502873752933</v>
       </c>
       <c r="F91">
-        <v>0.1192020500202119</v>
+        <v>-0.04132122859195858</v>
       </c>
       <c r="G91">
-        <v>0.09022836844701786</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.0250048253245918</v>
+      </c>
+      <c r="H91">
+        <v>-0.007156478775761581</v>
+      </c>
+      <c r="I91">
+        <v>-0.01805197987819424</v>
+      </c>
+      <c r="J91">
+        <v>0.3442299388142609</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>0.04285768474214915</v>
+        <v>0.06047967363270104</v>
       </c>
       <c r="C92">
-        <v>0.4481908859226407</v>
+        <v>-0.4760420859681297</v>
       </c>
       <c r="D92">
-        <v>0.2004217035109586</v>
+        <v>-0.0539528183318969</v>
       </c>
       <c r="E92">
-        <v>-0.1178370423846566</v>
+        <v>0.145358046067202</v>
       </c>
       <c r="F92">
-        <v>0.0743044242573975</v>
+        <v>-0.02437820325289472</v>
       </c>
       <c r="G92">
-        <v>0.523452391113306</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.05328875390536911</v>
+      </c>
+      <c r="H92">
+        <v>0.5670039767969635</v>
+      </c>
+      <c r="I92">
+        <v>-0.6136971707021284</v>
+      </c>
+      <c r="J92">
+        <v>-0.05782234077949546</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>0.04182108731310643</v>
+        <v>0.02354147591801022</v>
       </c>
       <c r="C93">
-        <v>0.3615068284116722</v>
+        <v>-0.4058572521254067</v>
       </c>
       <c r="D93">
-        <v>0.06843875548002749</v>
+        <v>-0.03881658471789885</v>
       </c>
       <c r="E93">
-        <v>-0.06111803548013649</v>
+        <v>0.02941236527749656</v>
       </c>
       <c r="F93">
-        <v>0.01950129359542299</v>
+        <v>-0.02955460293171918</v>
       </c>
       <c r="G93">
-        <v>0.003222080389514158</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.03909532462139295</v>
+      </c>
+      <c r="H93">
+        <v>-0.05938405115873677</v>
+      </c>
+      <c r="I93">
+        <v>0.2087457775003879</v>
+      </c>
+      <c r="J93">
+        <v>0.07661870915493908</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>-0.307307860823259</v>
+        <v>0.3255735023413607</v>
       </c>
       <c r="C94">
-        <v>0.02258150325073493</v>
+        <v>0.01075186991106561</v>
       </c>
       <c r="D94">
-        <v>-0.08164496916103108</v>
+        <v>0.1717396031989402</v>
       </c>
       <c r="E94">
-        <v>-0.4529645185462027</v>
+        <v>0.3867466248179145</v>
       </c>
       <c r="F94">
-        <v>0.3938278572547477</v>
+        <v>-0.09302119749246271</v>
       </c>
       <c r="G94">
-        <v>-0.03991889611697134</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.1907085260680131</v>
+      </c>
+      <c r="H94">
+        <v>0.05501220110087912</v>
+      </c>
+      <c r="I94">
+        <v>0.2979005461093802</v>
+      </c>
+      <c r="J94">
+        <v>-0.5599404409897113</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>-0.1867641100282917</v>
+        <v>0.1403414414716461</v>
       </c>
       <c r="C95">
-        <v>0.04240526740083011</v>
+        <v>0.05518587170292098</v>
       </c>
       <c r="D95">
-        <v>-0.01734687817304204</v>
+        <v>0.03895807207478346</v>
       </c>
       <c r="E95">
-        <v>-0.3590176948758953</v>
+        <v>0.008349277839851534</v>
       </c>
       <c r="F95">
-        <v>-0.8646342158204081</v>
+        <v>-0.09562698246462577</v>
       </c>
       <c r="G95">
-        <v>0.03731157108003072</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.9218624271112354</v>
+      </c>
+      <c r="H95">
+        <v>-0.07969766970015937</v>
+      </c>
+      <c r="I95">
+        <v>-0.001198217472859431</v>
+      </c>
+      <c r="J95">
+        <v>-0.2466879625442581</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3772,19 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3804,51 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>-0.2078093879233337</v>
+        <v>0.2068027745149561</v>
       </c>
       <c r="C98">
-        <v>0.1482353796789091</v>
+        <v>-0.09243668252211153</v>
       </c>
       <c r="D98">
-        <v>0.02286366801200385</v>
+        <v>-0.006338393184812107</v>
       </c>
       <c r="E98">
-        <v>0.0932879436633627</v>
+        <v>-0.1599653134594525</v>
       </c>
       <c r="F98">
-        <v>-0.008768891663669027</v>
+        <v>-0.07894560541685774</v>
       </c>
       <c r="G98">
-        <v>-0.2665275200274778</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.0710430666977679</v>
+      </c>
+      <c r="H98">
+        <v>-0.2928996666067934</v>
+      </c>
+      <c r="I98">
+        <v>-0.2155594554376794</v>
+      </c>
+      <c r="J98">
+        <v>-0.05401949881274819</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3868,19 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,79 +3900,115 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>-0.02102829482205681</v>
+        <v>0.01358924899948311</v>
       </c>
       <c r="C101">
-        <v>-0.01542449495555285</v>
+        <v>0.028467429453904</v>
       </c>
       <c r="D101">
-        <v>-0.01604221543022745</v>
+        <v>0.02010515129047917</v>
       </c>
       <c r="E101">
-        <v>0.04217281595112377</v>
+        <v>-0.06311252348352903</v>
       </c>
       <c r="F101">
-        <v>-0.01645047977331951</v>
+        <v>0.0390615120750605</v>
       </c>
       <c r="G101">
-        <v>0.04797000391666368</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.001212016502543669</v>
+      </c>
+      <c r="H101">
+        <v>0.1227372669512163</v>
+      </c>
+      <c r="I101">
+        <v>0.01409624406395671</v>
+      </c>
+      <c r="J101">
+        <v>-0.08228787122781765</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B102">
-        <v>-0.1197675259101461</v>
+        <v>0.1209651089400142</v>
       </c>
       <c r="C102">
-        <v>0.002915467235827173</v>
+        <v>0.02539333197752986</v>
       </c>
       <c r="D102">
-        <v>-0.04935827268790673</v>
+        <v>0.05473523826355138</v>
       </c>
       <c r="E102">
-        <v>-0.07083096982178601</v>
+        <v>0.08312780957318319</v>
       </c>
       <c r="F102">
-        <v>-0.01881051482015756</v>
+        <v>0.003888248516154089</v>
       </c>
       <c r="G102">
-        <v>0.01521612604736302</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.03788568711588898</v>
+      </c>
+      <c r="H102">
+        <v>-0.005355818374016744</v>
+      </c>
+      <c r="I102">
+        <v>0.02203958494203902</v>
+      </c>
+      <c r="J102">
+        <v>0.06667071435879153</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B103">
-        <v>-0.01631572795590275</v>
+        <v>0.02034134741555367</v>
       </c>
       <c r="C103">
-        <v>0.0004764094602719776</v>
+        <v>0.008453767865729074</v>
       </c>
       <c r="D103">
-        <v>-0.01829274488426444</v>
+        <v>0.01704613745819812</v>
       </c>
       <c r="E103">
-        <v>-0.02707969222153618</v>
+        <v>0.01579151319447997</v>
       </c>
       <c r="F103">
-        <v>0.01023079531384679</v>
+        <v>-0.003010648582210597</v>
       </c>
       <c r="G103">
-        <v>-0.006811480967800845</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>-0.01180805542294032</v>
+      </c>
+      <c r="H103">
+        <v>0.00385341406516023</v>
+      </c>
+      <c r="I103">
+        <v>0.02204210945016688</v>
+      </c>
+      <c r="J103">
+        <v>0.00455226708648097</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4026,15 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
